--- a/DATA FINAL.xlsx
+++ b/DATA FINAL.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="418">
   <si>
     <t>Departamento</t>
   </si>
@@ -1282,6 +1282,9 @@
   </si>
   <si>
     <t>Ancash</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1669,7 @@
   <dimension ref="A1:E196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1677,7 +1680,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
